--- a/Dati contagi nelle scuole/Monitoraggi Covid-19 in ambito scolastico - MIUR/Quadro Sintesi.xlsx
+++ b/Dati contagi nelle scuole/Monitoraggi Covid-19 in ambito scolastico - MIUR/Quadro Sintesi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Davide Tosi/Orizzonte Scuola /MIUR/Monitoraggi Covid-19 in ambito scolastico/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Contagi nelle scuole/MIUR/Monitoraggi Covid-19 in ambito scolastico - MIUR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269F5FC8-BBFA-9544-8659-D5A1C69E1E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F51B13-053C-CE47-95E7-2E118EF9B5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="1000" windowWidth="27640" windowHeight="15560" activeTab="3" xr2:uid="{2ECB7D2D-158E-0A4B-B0FC-6DE660AF08A9}"/>
+    <workbookView xWindow="6280" yWindow="1820" windowWidth="21360" windowHeight="13620" activeTab="3" xr2:uid="{2ECB7D2D-158E-0A4B-B0FC-6DE660AF08A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Classi" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Data</t>
   </si>
@@ -51,9 +51,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>Ore 12:00 - 19 gennaio 2022</t>
-  </si>
-  <si>
     <t>Totale classi</t>
   </si>
   <si>
@@ -150,7 +147,13 @@
     <t>% Personale ATA in presenza</t>
   </si>
   <si>
-    <t>Ore 11:00 - 28 gennaio 2022</t>
+    <t>24 - 29 gennaio 2022</t>
+  </si>
+  <si>
+    <t>17 - 23 gennaio 2022</t>
+  </si>
+  <si>
+    <t>10 - 15 gennaio 2022</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AD602E-4E65-2F40-97E8-B02932F92E6F}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -526,36 +529,36 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
         <v>6693</v>
@@ -633,6 +636,47 @@
       </c>
       <c r="M3" s="2">
         <v>0.155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6360</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8157</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="E4" s="1">
+        <v>375663</v>
+      </c>
+      <c r="F4" s="1">
+        <v>293567</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="H4" s="1">
+        <v>242988</v>
+      </c>
+      <c r="I4" s="1">
+        <v>42749</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="L4" s="1">
+        <v>50579</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.17199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -642,10 +686,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E478EE-0C79-3849-89C4-7AD507BD9B67}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,24 +699,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
         <v>7362181</v>
@@ -708,6 +752,26 @@
       </c>
       <c r="F3" s="2">
         <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7378096</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5761953</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4676728</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.81200000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -717,10 +781,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53FC0B6-3094-DF41-AEF8-74A0DF3D6831}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -730,27 +794,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1">
         <v>691412</v>
@@ -767,10 +831,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>1902883</v>
@@ -787,10 +851,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>3427804</v>
@@ -810,7 +874,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>699713</v>
@@ -830,7 +894,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>1930777</v>
@@ -850,7 +914,7 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>3534990</v>
@@ -863,6 +927,66 @@
       </c>
       <c r="F8" s="2">
         <v>0.156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1">
+        <v>646351</v>
+      </c>
+      <c r="D10" s="1">
+        <v>494460</v>
+      </c>
+      <c r="E10" s="1">
+        <v>151891</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1798791</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1390981</v>
+      </c>
+      <c r="E11" s="1">
+        <v>407810</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.22699999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3316811</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2791287</v>
+      </c>
+      <c r="E12" s="1">
+        <v>525524</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.158</v>
       </c>
     </row>
   </sheetData>
@@ -875,7 +999,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -885,39 +1009,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
-      </c>
-      <c r="K1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
         <v>775867</v>
@@ -983,6 +1107,41 @@
       </c>
       <c r="K3" s="2">
         <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1">
+        <v>775867</v>
+      </c>
+      <c r="C4" s="1">
+        <v>599934</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="E4" s="1">
+        <v>552666</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="G4" s="1">
+        <v>204526</v>
+      </c>
+      <c r="H4" s="1">
+        <v>159304</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="J4" s="1">
+        <v>149080</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.93600000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">

--- a/Dati contagi nelle scuole/Monitoraggi Covid-19 in ambito scolastico - MIUR/Quadro Sintesi.xlsx
+++ b/Dati contagi nelle scuole/Monitoraggi Covid-19 in ambito scolastico - MIUR/Quadro Sintesi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Contagi nelle scuole/MIUR/Monitoraggi Covid-19 in ambito scolastico - MIUR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F51B13-053C-CE47-95E7-2E118EF9B5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A58D10C-5A5C-D14A-853F-E687C8FE4307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="1820" windowWidth="21360" windowHeight="13620" activeTab="3" xr2:uid="{2ECB7D2D-158E-0A4B-B0FC-6DE660AF08A9}"/>
+    <workbookView xWindow="9500" yWindow="2140" windowWidth="21360" windowHeight="13620" activeTab="3" xr2:uid="{2ECB7D2D-158E-0A4B-B0FC-6DE660AF08A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Classi" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>Data</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>10 - 15 gennaio 2022</t>
+  </si>
+  <si>
+    <t>31 gennaio - 5 febbraio 2022</t>
   </si>
 </sst>
 </file>
@@ -507,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AD602E-4E65-2F40-97E8-B02932F92E6F}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -679,6 +682,47 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>6080</v>
+      </c>
+      <c r="C5">
+        <v>8157</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.745</v>
+      </c>
+      <c r="E5">
+        <v>375908</v>
+      </c>
+      <c r="F5">
+        <v>279677</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="H5">
+        <v>246401</v>
+      </c>
+      <c r="I5">
+        <v>32619</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="L5">
+        <v>33276</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -686,10 +730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E478EE-0C79-3849-89C4-7AD507BD9B67}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -774,6 +818,26 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7382391</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5477689</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4760985</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.86900000000000011</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -781,10 +845,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53FC0B6-3094-DF41-AEF8-74A0DF3D6831}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -987,6 +1051,66 @@
       </c>
       <c r="F12" s="2">
         <v>0.158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1">
+        <v>619532</v>
+      </c>
+      <c r="D14" s="1">
+        <v>519606</v>
+      </c>
+      <c r="E14" s="1">
+        <v>99926</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1707409</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1442403</v>
+      </c>
+      <c r="E15" s="1">
+        <v>265006</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3150748</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2798976</v>
+      </c>
+      <c r="E16" s="1">
+        <v>351772</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.11199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +1123,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1144,6 +1268,41 @@
         <v>0.93600000000000005</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1">
+        <v>775867</v>
+      </c>
+      <c r="C5" s="1">
+        <v>572166</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>536000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="G5" s="1">
+        <v>204526</v>
+      </c>
+      <c r="H5" s="1">
+        <v>151847</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="J5" s="1">
+        <v>144255</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>

--- a/Dati contagi nelle scuole/Monitoraggi Covid-19 in ambito scolastico - MIUR/Quadro Sintesi.xlsx
+++ b/Dati contagi nelle scuole/Monitoraggi Covid-19 in ambito scolastico - MIUR/Quadro Sintesi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Contagi nelle scuole/MIUR/Monitoraggi Covid-19 in ambito scolastico - MIUR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A58D10C-5A5C-D14A-853F-E687C8FE4307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BCAD45-1AAF-D04E-B520-60F061F77667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9500" yWindow="2140" windowWidth="21360" windowHeight="13620" activeTab="3" xr2:uid="{2ECB7D2D-158E-0A4B-B0FC-6DE660AF08A9}"/>
+    <workbookView xWindow="7440" yWindow="2140" windowWidth="21360" windowHeight="13620" xr2:uid="{2ECB7D2D-158E-0A4B-B0FC-6DE660AF08A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Classi" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>Data</t>
   </si>
@@ -157,12 +157,24 @@
   </si>
   <si>
     <t>31 gennaio - 5 febbraio 2022</t>
+  </si>
+  <si>
+    <t>7- 12 febbraio 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N. sezioni Infanzia con Didattica Sospesa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">%. sezioni Infanzia con Didattica Sospesa </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -195,7 +207,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -510,15 +522,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AD602E-4E65-2F40-97E8-B02932F92E6F}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -558,8 +570,14 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -600,7 +618,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -641,7 +659,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -682,32 +700,32 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>6080</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>8157</v>
       </c>
       <c r="D5" s="2">
         <v>0.745</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>375908</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>279677</v>
       </c>
       <c r="G5" s="2">
         <v>0.74399999999999999</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>246401</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>32619</v>
       </c>
       <c r="J5" s="2">
@@ -716,11 +734,52 @@
       <c r="K5" s="2">
         <v>0.11700000000000001</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>33276</v>
       </c>
       <c r="M5" s="2">
         <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6168</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8157</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.75599999999999989</v>
+      </c>
+      <c r="E6" s="1">
+        <v>376129</v>
+      </c>
+      <c r="F6" s="1">
+        <v>284465</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.75599999999999989</v>
+      </c>
+      <c r="H6" s="1">
+        <v>283629</v>
+      </c>
+      <c r="I6" s="1">
+        <v>31354</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="N6" s="1">
+        <v>836</v>
+      </c>
+      <c r="O6" s="2">
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -730,10 +789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E478EE-0C79-3849-89C4-7AD507BD9B67}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -838,6 +897,26 @@
         <v>0.86900000000000011</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7386702</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5564288</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.753</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5254891</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.94400000000000006</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -845,10 +924,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53FC0B6-3094-DF41-AEF8-74A0DF3D6831}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:E16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -933,6 +1012,9 @@
         <v>0.125</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="2"/>
+    </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
@@ -993,6 +1075,9 @@
         <v>0.156</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="2"/>
+    </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
@@ -1053,6 +1138,9 @@
         <v>0.158</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="2"/>
+    </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
@@ -1111,6 +1199,66 @@
       </c>
       <c r="F16" s="2">
         <v>0.11199999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>637118</v>
+      </c>
+      <c r="D18" s="1">
+        <v>603185</v>
+      </c>
+      <c r="E18" s="1">
+        <v>33933</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1758346</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1655111</v>
+      </c>
+      <c r="E19" s="1">
+        <v>103235</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5.9000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3168824</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2996595</v>
+      </c>
+      <c r="E20" s="1">
+        <v>172229</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5.4000000000000006E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1122,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBB5DFE-7841-8E41-B6CB-9B0D5EB9DE1E}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1304,11 +1452,39 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1">
+        <v>775867</v>
+      </c>
+      <c r="C6" s="1">
+        <v>581665</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="1">
+        <v>555933</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="G6" s="1">
+        <v>204526</v>
+      </c>
+      <c r="H6" s="1">
+        <v>154221</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.754</v>
+      </c>
+      <c r="J6" s="1">
+        <v>148818</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.96499999999999997</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dati contagi nelle scuole/Monitoraggi Covid-19 in ambito scolastico - MIUR/Quadro Sintesi.xlsx
+++ b/Dati contagi nelle scuole/Monitoraggi Covid-19 in ambito scolastico - MIUR/Quadro Sintesi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Contagi nelle scuole/MIUR/Monitoraggi Covid-19 in ambito scolastico - MIUR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BCAD45-1AAF-D04E-B520-60F061F77667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1548A7-453E-DB40-A16C-4E95A9679978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="2140" windowWidth="21360" windowHeight="13620" xr2:uid="{2ECB7D2D-158E-0A4B-B0FC-6DE660AF08A9}"/>
+    <workbookView xWindow="7440" yWindow="2140" windowWidth="21360" windowHeight="13620" activeTab="3" xr2:uid="{2ECB7D2D-158E-0A4B-B0FC-6DE660AF08A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Classi" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
   <si>
     <t>Data</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t xml:space="preserve">%. sezioni Infanzia con Didattica Sospesa </t>
+  </si>
+  <si>
+    <t>14-19 febbraio 2022</t>
   </si>
 </sst>
 </file>
@@ -522,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AD602E-4E65-2F40-97E8-B02932F92E6F}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:O1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -782,6 +785,47 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6134</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8157</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.752</v>
+      </c>
+      <c r="E7" s="1">
+        <v>376215</v>
+      </c>
+      <c r="F7" s="1">
+        <v>282974</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.752</v>
+      </c>
+      <c r="H7" s="1">
+        <v>282485</v>
+      </c>
+      <c r="I7" s="1">
+        <v>26787</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.998</v>
+      </c>
+      <c r="K7" s="2">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="N7">
+        <v>489</v>
+      </c>
+      <c r="O7">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -789,10 +833,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E478EE-0C79-3849-89C4-7AD507BD9B67}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -917,6 +961,26 @@
         <v>0.94400000000000006</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7388444</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5536315</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.74900000000000011</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5311636</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.95900000000000007</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -924,10 +988,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53FC0B6-3094-DF41-AEF8-74A0DF3D6831}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1261,6 +1325,66 @@
         <v>5.4000000000000006E-2</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1">
+        <v>632694</v>
+      </c>
+      <c r="D22" s="1">
+        <v>606919</v>
+      </c>
+      <c r="E22" s="1">
+        <v>25775</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4.0999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1745692</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1670216</v>
+      </c>
+      <c r="E23" s="1">
+        <v>75476</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3157929</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3034501</v>
+      </c>
+      <c r="E24" s="1">
+        <v>123428</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3.9E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1268,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBB5DFE-7841-8E41-B6CB-9B0D5EB9DE1E}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1486,6 +1610,41 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1">
+        <v>775867</v>
+      </c>
+      <c r="C7" s="1">
+        <v>578258</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.745</v>
+      </c>
+      <c r="E7" s="1">
+        <v>557629</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.96400000000000008</v>
+      </c>
+      <c r="G7" s="1">
+        <v>204526</v>
+      </c>
+      <c r="H7" s="1">
+        <v>153254</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.74900000000000011</v>
+      </c>
+      <c r="J7" s="1">
+        <v>149129</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.97299999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dati contagi nelle scuole/Monitoraggi Covid-19 in ambito scolastico - MIUR/Quadro Sintesi.xlsx
+++ b/Dati contagi nelle scuole/Monitoraggi Covid-19 in ambito scolastico - MIUR/Quadro Sintesi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Contagi nelle scuole/MIUR/Monitoraggi Covid-19 in ambito scolastico - MIUR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1548A7-453E-DB40-A16C-4E95A9679978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1232A3FB-E50E-7A4F-9DC6-8EEF1ECF23CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="2140" windowWidth="21360" windowHeight="13620" activeTab="3" xr2:uid="{2ECB7D2D-158E-0A4B-B0FC-6DE660AF08A9}"/>
+    <workbookView xWindow="7440" yWindow="2120" windowWidth="21360" windowHeight="13620" activeTab="3" xr2:uid="{2ECB7D2D-158E-0A4B-B0FC-6DE660AF08A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Classi" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
   <si>
     <t>Data</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>14-19 febbraio 2022</t>
+  </si>
+  <si>
+    <t>21-26 febbraio 2022</t>
   </si>
 </sst>
 </file>
@@ -178,10 +181,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,10 +217,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -525,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AD602E-4E65-2F40-97E8-B02932F92E6F}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -822,8 +833,49 @@
       <c r="N7">
         <v>489</v>
       </c>
-      <c r="O7">
-        <v>0.2</v>
+      <c r="O7" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5697</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8157</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="E8" s="1">
+        <v>376384</v>
+      </c>
+      <c r="F8" s="1">
+        <v>262583</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="H8" s="1">
+        <v>262257</v>
+      </c>
+      <c r="I8" s="1">
+        <v>21028</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.99900000000000011</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="N8">
+        <v>326</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
@@ -833,10 +885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E478EE-0C79-3849-89C4-7AD507BD9B67}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -981,6 +1033,26 @@
         <v>0.95900000000000007</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7391780</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5135791</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4974846</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.96900000000000008</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -988,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53FC0B6-3094-DF41-AEF8-74A0DF3D6831}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1385,6 +1457,66 @@
         <v>3.9E-2</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1">
+        <v>587043</v>
+      </c>
+      <c r="D26" s="1">
+        <v>568973</v>
+      </c>
+      <c r="E26" s="1">
+        <v>18070</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1621105</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1566437</v>
+      </c>
+      <c r="E27" s="1">
+        <v>54668</v>
+      </c>
+      <c r="F27" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2927643</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2839436</v>
+      </c>
+      <c r="E28" s="1">
+        <v>88207</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1392,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBB5DFE-7841-8E41-B6CB-9B0D5EB9DE1E}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1645,6 +1777,41 @@
         <v>0.97299999999999998</v>
       </c>
     </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1">
+        <v>775867</v>
+      </c>
+      <c r="C8" s="1">
+        <v>536226</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="E8" s="1">
+        <v>520099</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="G8" s="1">
+        <v>204526</v>
+      </c>
+      <c r="H8" s="1">
+        <v>142421</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="J8" s="1">
+        <v>139147</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dati contagi nelle scuole/Monitoraggi Covid-19 in ambito scolastico - MIUR/Quadro Sintesi.xlsx
+++ b/Dati contagi nelle scuole/Monitoraggi Covid-19 in ambito scolastico - MIUR/Quadro Sintesi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Contagi nelle scuole/MIUR/Monitoraggi Covid-19 in ambito scolastico - MIUR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1232A3FB-E50E-7A4F-9DC6-8EEF1ECF23CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5360D8-61D7-7E4C-A6FF-C65E02DD42CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="2120" windowWidth="21360" windowHeight="13620" activeTab="3" xr2:uid="{2ECB7D2D-158E-0A4B-B0FC-6DE660AF08A9}"/>
+    <workbookView xWindow="4860" yWindow="2060" windowWidth="21360" windowHeight="13620" activeTab="3" xr2:uid="{2ECB7D2D-158E-0A4B-B0FC-6DE660AF08A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Classi" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
   <si>
     <t>Data</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>21-26 febbraio 2022</t>
+  </si>
+  <si>
+    <t>28 febbraio - 5 marzo 2022</t>
   </si>
 </sst>
 </file>
@@ -536,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AD602E-4E65-2F40-97E8-B02932F92E6F}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -878,6 +881,47 @@
         <v>1E-3</v>
       </c>
     </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5926</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8157</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="E9" s="1">
+        <v>376464</v>
+      </c>
+      <c r="F9" s="1">
+        <v>273255</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="H9" s="1">
+        <v>272998</v>
+      </c>
+      <c r="I9" s="1">
+        <v>18307</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.99900000000000011</v>
+      </c>
+      <c r="K9" s="2">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="N9">
+        <v>257</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -885,10 +929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E478EE-0C79-3849-89C4-7AD507BD9B67}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1053,6 +1097,26 @@
         <v>0.96900000000000008</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7393168</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5342389</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5208193</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1060,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53FC0B6-3094-DF41-AEF8-74A0DF3D6831}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1517,6 +1581,66 @@
         <v>0.03</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1">
+        <v>608188</v>
+      </c>
+      <c r="D30" s="1">
+        <v>594246</v>
+      </c>
+      <c r="E30" s="1">
+        <v>13942</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1687275</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1643817</v>
+      </c>
+      <c r="E31" s="1">
+        <v>43458</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3046926</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2970130</v>
+      </c>
+      <c r="E32" s="1">
+        <v>76796</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1524,10 +1648,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBB5DFE-7841-8E41-B6CB-9B0D5EB9DE1E}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1812,6 +1936,41 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1">
+        <v>775867</v>
+      </c>
+      <c r="C9" s="1">
+        <v>558524</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="E9" s="1">
+        <v>543784</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.97400000000000009</v>
+      </c>
+      <c r="G9" s="1">
+        <v>204526</v>
+      </c>
+      <c r="H9" s="1">
+        <v>148016</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.72400000000000009</v>
+      </c>
+      <c r="J9" s="1">
+        <v>145068</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dati contagi nelle scuole/Monitoraggi Covid-19 in ambito scolastico - MIUR/Quadro Sintesi.xlsx
+++ b/Dati contagi nelle scuole/Monitoraggi Covid-19 in ambito scolastico - MIUR/Quadro Sintesi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Contagi nelle scuole/MIUR/Monitoraggi Covid-19 in ambito scolastico - MIUR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5360D8-61D7-7E4C-A6FF-C65E02DD42CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA57CA5-EC4B-D74D-AA08-2F529779AC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="2060" windowWidth="21360" windowHeight="13620" activeTab="3" xr2:uid="{2ECB7D2D-158E-0A4B-B0FC-6DE660AF08A9}"/>
+    <workbookView xWindow="4860" yWindow="2060" windowWidth="21360" windowHeight="13620" activeTab="2" xr2:uid="{2ECB7D2D-158E-0A4B-B0FC-6DE660AF08A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Classi" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="47">
   <si>
     <t>Data</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>28 febbraio - 5 marzo 2022</t>
+  </si>
+  <si>
+    <t>7  - 12 marzo 2022</t>
   </si>
 </sst>
 </file>
@@ -539,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AD602E-4E65-2F40-97E8-B02932F92E6F}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -922,6 +925,47 @@
         <v>1E-3</v>
       </c>
     </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5827</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8157</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.71400000000000008</v>
+      </c>
+      <c r="E10" s="1">
+        <v>376491</v>
+      </c>
+      <c r="F10" s="1">
+        <v>268352</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H10" s="1">
+        <v>268076</v>
+      </c>
+      <c r="I10" s="1">
+        <v>20809</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.99900000000000011</v>
+      </c>
+      <c r="K10" s="2">
+        <v>7.8E-2</v>
+      </c>
+      <c r="N10">
+        <v>276</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -929,10 +973,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E478EE-0C79-3849-89C4-7AD507BD9B67}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1117,6 +1161,26 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7393374</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5248017</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5098082</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1124,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53FC0B6-3094-DF41-AEF8-74A0DF3D6831}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1641,6 +1705,66 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="1">
+        <v>603087</v>
+      </c>
+      <c r="D34" s="1">
+        <v>590099</v>
+      </c>
+      <c r="E34" s="1">
+        <v>12988</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2.2000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1669122</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1622263</v>
+      </c>
+      <c r="E35" s="1">
+        <v>46859</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2.7999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2975808</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2885720</v>
+      </c>
+      <c r="E36" s="1">
+        <v>90088</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1648,10 +1772,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBB5DFE-7841-8E41-B6CB-9B0D5EB9DE1E}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1971,6 +2095,41 @@
         <v>0.98</v>
       </c>
     </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1">
+        <v>775867</v>
+      </c>
+      <c r="C10" s="1">
+        <v>548032</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="E10" s="1">
+        <v>530432</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="G10" s="1">
+        <v>204526</v>
+      </c>
+      <c r="H10" s="1">
+        <v>144880</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="J10" s="1">
+        <v>141428</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dati contagi nelle scuole/Monitoraggi Covid-19 in ambito scolastico - MIUR/Quadro Sintesi.xlsx
+++ b/Dati contagi nelle scuole/Monitoraggi Covid-19 in ambito scolastico - MIUR/Quadro Sintesi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Contagi nelle scuole/MIUR/Monitoraggi Covid-19 in ambito scolastico - MIUR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA57CA5-EC4B-D74D-AA08-2F529779AC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4E25D5-34FF-844E-9498-45637371BADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="2060" windowWidth="21360" windowHeight="13620" activeTab="2" xr2:uid="{2ECB7D2D-158E-0A4B-B0FC-6DE660AF08A9}"/>
+    <workbookView xWindow="4860" yWindow="2060" windowWidth="21360" windowHeight="13620" activeTab="3" xr2:uid="{2ECB7D2D-158E-0A4B-B0FC-6DE660AF08A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Classi" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="48">
   <si>
     <t>Data</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>7  - 12 marzo 2022</t>
+  </si>
+  <si>
+    <t>14  - 19 marzo 2022</t>
   </si>
 </sst>
 </file>
@@ -223,11 +226,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -542,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AD602E-4E65-2F40-97E8-B02932F92E6F}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -966,6 +970,47 @@
         <v>1E-3</v>
       </c>
     </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5727</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8157</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.70200000000000007</v>
+      </c>
+      <c r="E11" s="1">
+        <v>376500</v>
+      </c>
+      <c r="F11" s="1">
+        <v>264356</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.70200000000000007</v>
+      </c>
+      <c r="H11" s="1">
+        <v>264017</v>
+      </c>
+      <c r="I11" s="1">
+        <v>24502</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.999</v>
+      </c>
+      <c r="K11" s="2">
+        <v>9.3000000000000013E-2</v>
+      </c>
+      <c r="N11">
+        <v>339</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -973,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E478EE-0C79-3849-89C4-7AD507BD9B67}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1181,6 +1226,26 @@
         <v>0.97099999999999997</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7393525</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5176512</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4995818</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.96499999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1188,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53FC0B6-3094-DF41-AEF8-74A0DF3D6831}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1277,26 +1342,43 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="2"/>
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>699713</v>
+      </c>
+      <c r="D5" s="1">
+        <v>547984</v>
+      </c>
+      <c r="E5" s="1">
+        <v>151729</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.217</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
-        <v>699713</v>
+        <v>1930777</v>
       </c>
       <c r="D6" s="1">
-        <v>547984</v>
+        <v>1515840</v>
       </c>
       <c r="E6" s="1">
-        <v>151729</v>
+        <v>414937</v>
       </c>
       <c r="F6" s="2">
-        <v>0.217</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1304,465 +1386,499 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
-        <v>1930777</v>
+        <v>3534990</v>
       </c>
       <c r="D7" s="1">
-        <v>1515840</v>
+        <v>2985279</v>
       </c>
       <c r="E7" s="1">
-        <v>414937</v>
+        <v>549711</v>
       </c>
       <c r="F7" s="2">
-        <v>0.215</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
-        <v>3534990</v>
+        <v>646351</v>
       </c>
       <c r="D8" s="1">
-        <v>2985279</v>
+        <v>494460</v>
       </c>
       <c r="E8" s="1">
-        <v>549711</v>
+        <v>151891</v>
       </c>
       <c r="F8" s="2">
-        <v>0.156</v>
+        <v>0.23499999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="2"/>
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1798791</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1390981</v>
+      </c>
+      <c r="E9" s="1">
+        <v>407810</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.22699999999999998</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1">
-        <v>646351</v>
+        <v>3316811</v>
       </c>
       <c r="D10" s="1">
-        <v>494460</v>
+        <v>2791287</v>
       </c>
       <c r="E10" s="1">
-        <v>151891</v>
+        <v>525524</v>
       </c>
       <c r="F10" s="2">
-        <v>0.23499999999999999</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
-        <v>1798791</v>
+        <v>619532</v>
       </c>
       <c r="D11" s="1">
-        <v>1390981</v>
+        <v>519606</v>
       </c>
       <c r="E11" s="1">
-        <v>407810</v>
+        <v>99926</v>
       </c>
       <c r="F11" s="2">
-        <v>0.22699999999999998</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1707409</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1442403</v>
+      </c>
+      <c r="E12" s="1">
+        <v>265006</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="1">
-        <v>3316811</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2791287</v>
-      </c>
-      <c r="E12" s="1">
-        <v>525524</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="2"/>
+      <c r="C13" s="1">
+        <v>3150748</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2798976</v>
+      </c>
+      <c r="E13" s="1">
+        <v>351772</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.11199999999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1">
-        <v>619532</v>
+        <v>637118</v>
       </c>
       <c r="D14" s="1">
-        <v>519606</v>
+        <v>603185</v>
       </c>
       <c r="E14" s="1">
-        <v>99926</v>
+        <v>33933</v>
       </c>
       <c r="F14" s="2">
-        <v>0.161</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="1">
-        <v>1707409</v>
+        <v>1758346</v>
       </c>
       <c r="D15" s="1">
-        <v>1442403</v>
+        <v>1655111</v>
       </c>
       <c r="E15" s="1">
-        <v>265006</v>
+        <v>103235</v>
       </c>
       <c r="F15" s="2">
-        <v>0.155</v>
+        <v>5.9000000000000004E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="1">
-        <v>3150748</v>
+        <v>3168824</v>
       </c>
       <c r="D16" s="1">
-        <v>2798976</v>
+        <v>2996595</v>
       </c>
       <c r="E16" s="1">
-        <v>351772</v>
+        <v>172229</v>
       </c>
       <c r="F16" s="2">
-        <v>0.11199999999999999</v>
+        <v>5.4000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
+        <v>632694</v>
+      </c>
+      <c r="D17" s="1">
+        <v>606919</v>
+      </c>
+      <c r="E17" s="1">
+        <v>25775</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4.0999999999999995E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
-        <v>637118</v>
+        <v>1745692</v>
       </c>
       <c r="D18" s="1">
-        <v>603185</v>
+        <v>1670216</v>
       </c>
       <c r="E18" s="1">
-        <v>33933</v>
+        <v>75476</v>
       </c>
       <c r="F18" s="2">
-        <v>5.2999999999999999E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1">
-        <v>1758346</v>
+        <v>3157929</v>
       </c>
       <c r="D19" s="1">
-        <v>1655111</v>
+        <v>3034501</v>
       </c>
       <c r="E19" s="1">
-        <v>103235</v>
+        <v>123428</v>
       </c>
       <c r="F19" s="2">
-        <v>5.9000000000000004E-2</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
-        <v>3168824</v>
+        <v>587043</v>
       </c>
       <c r="D20" s="1">
-        <v>2996595</v>
+        <v>568973</v>
       </c>
       <c r="E20" s="1">
-        <v>172229</v>
+        <v>18070</v>
       </c>
       <c r="F20" s="2">
-        <v>5.4000000000000006E-2</v>
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1621105</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1566437</v>
+      </c>
+      <c r="E21" s="1">
+        <v>54668</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1">
-        <v>632694</v>
+        <v>2927643</v>
       </c>
       <c r="D22" s="1">
-        <v>606919</v>
+        <v>2839436</v>
       </c>
       <c r="E22" s="1">
-        <v>25775</v>
+        <v>88207</v>
       </c>
       <c r="F22" s="2">
-        <v>4.0999999999999995E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1">
-        <v>1745692</v>
+        <v>608188</v>
       </c>
       <c r="D23" s="1">
-        <v>1670216</v>
+        <v>594246</v>
       </c>
       <c r="E23" s="1">
-        <v>75476</v>
+        <v>13942</v>
       </c>
       <c r="F23" s="2">
-        <v>4.2999999999999997E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1687275</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1643817</v>
+      </c>
+      <c r="E24" s="1">
+        <v>43458</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="1">
-        <v>3157929</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3034501</v>
-      </c>
-      <c r="E24" s="1">
-        <v>123428</v>
-      </c>
-      <c r="F24" s="2">
-        <v>3.9E-2</v>
+      <c r="C25" s="1">
+        <v>3046926</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2970130</v>
+      </c>
+      <c r="E25" s="1">
+        <v>76796</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="1">
-        <v>587043</v>
+        <v>603087</v>
       </c>
       <c r="D26" s="1">
-        <v>568973</v>
+        <v>590099</v>
       </c>
       <c r="E26" s="1">
-        <v>18070</v>
+        <v>12988</v>
       </c>
       <c r="F26" s="2">
-        <v>3.1E-2</v>
+        <v>2.2000000000000002E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="1">
-        <v>1621105</v>
+        <v>1669122</v>
       </c>
       <c r="D27" s="1">
-        <v>1566437</v>
+        <v>1622263</v>
       </c>
       <c r="E27" s="1">
-        <v>54668</v>
+        <v>46859</v>
       </c>
       <c r="F27" s="2">
-        <v>3.4000000000000002E-2</v>
+        <v>2.7999999999999997E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="1">
-        <v>2927643</v>
+        <v>2975808</v>
       </c>
       <c r="D28" s="1">
-        <v>2839436</v>
+        <v>2885720</v>
       </c>
       <c r="E28" s="1">
-        <v>88207</v>
+        <v>90088</v>
       </c>
       <c r="F28" s="2">
         <v>0.03</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1">
+        <v>591112</v>
+      </c>
+      <c r="D29" s="1">
+        <v>575737</v>
+      </c>
+      <c r="E29" s="1">
+        <v>15375</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2.6000000000000002E-2</v>
+      </c>
+    </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C30" s="1">
-        <v>608188</v>
+        <v>1643493</v>
       </c>
       <c r="D30" s="1">
-        <v>594246</v>
+        <v>1585284</v>
       </c>
       <c r="E30" s="1">
-        <v>13942</v>
+        <v>58209</v>
       </c>
       <c r="F30" s="2">
-        <v>2.3E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1">
-        <v>1687275</v>
+        <v>2941907</v>
       </c>
       <c r="D31" s="1">
-        <v>1643817</v>
+        <v>2834797</v>
       </c>
       <c r="E31" s="1">
-        <v>43458</v>
+        <v>107110</v>
       </c>
       <c r="F31" s="2">
-        <v>2.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="1">
-        <v>3046926</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2970130</v>
-      </c>
-      <c r="E32" s="1">
-        <v>76796</v>
-      </c>
-      <c r="F32" s="2">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="1">
-        <v>603087</v>
-      </c>
-      <c r="D34" s="1">
-        <v>590099</v>
-      </c>
-      <c r="E34" s="1">
-        <v>12988</v>
-      </c>
-      <c r="F34" s="2">
-        <v>2.2000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1669122</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1622263</v>
-      </c>
-      <c r="E35" s="1">
-        <v>46859</v>
-      </c>
-      <c r="F35" s="2">
-        <v>2.7999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="1">
-        <v>2975808</v>
-      </c>
-      <c r="D36" s="1">
-        <v>2885720</v>
-      </c>
-      <c r="E36" s="1">
-        <v>90088</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0.03</v>
+        <v>3.6000000000000004E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1772,10 +1888,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBB5DFE-7841-8E41-B6CB-9B0D5EB9DE1E}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2130,6 +2246,41 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1">
+        <v>775867</v>
+      </c>
+      <c r="C11" s="1">
+        <v>539843</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="E11" s="1">
+        <v>516187</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="G11" s="1">
+        <v>204526</v>
+      </c>
+      <c r="H11" s="1">
+        <v>142850</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="J11" s="1">
+        <v>138144</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.96700000000000008</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dati contagi nelle scuole/Monitoraggi Covid-19 in ambito scolastico - MIUR/Quadro Sintesi.xlsx
+++ b/Dati contagi nelle scuole/Monitoraggi Covid-19 in ambito scolastico - MIUR/Quadro Sintesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Contagi nelle scuole/MIUR/Monitoraggi Covid-19 in ambito scolastico - MIUR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4E25D5-34FF-844E-9498-45637371BADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2B8A3C-0E76-F94D-AEA4-604934DFD29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4860" yWindow="2060" windowWidth="21360" windowHeight="13620" activeTab="3" xr2:uid="{2ECB7D2D-158E-0A4B-B0FC-6DE660AF08A9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="49">
   <si>
     <t>Data</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>14  - 19 marzo 2022</t>
+  </si>
+  <si>
+    <t>21  - 26 marzo 2022</t>
   </si>
 </sst>
 </file>
@@ -546,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AD602E-4E65-2F40-97E8-B02932F92E6F}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1011,6 +1014,47 @@
         <v>1E-3</v>
       </c>
     </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5488</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8157</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="E12" s="1">
+        <v>376516</v>
+      </c>
+      <c r="F12" s="1">
+        <v>253348</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.67299999999999993</v>
+      </c>
+      <c r="H12" s="1">
+        <v>253112</v>
+      </c>
+      <c r="I12" s="1">
+        <v>24396</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.99900000000000011</v>
+      </c>
+      <c r="K12" s="2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="N12">
+        <v>236</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1018,7 +1062,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E478EE-0C79-3849-89C4-7AD507BD9B67}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -1242,7 +1286,27 @@
       <c r="E11" s="1">
         <v>4995818</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
+        <v>0.96499999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7393525</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4960243</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.67099999999999993</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4786890</v>
+      </c>
+      <c r="F12" s="2">
         <v>0.96499999999999997</v>
       </c>
     </row>
@@ -1253,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53FC0B6-3094-DF41-AEF8-74A0DF3D6831}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1881,6 +1945,66 @@
         <v>3.6000000000000004E-2</v>
       </c>
     </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5516357</v>
+      </c>
+      <c r="E32" s="1">
+        <v>14530</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1566311</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1506900</v>
+      </c>
+      <c r="E33" s="1">
+        <v>59411</v>
+      </c>
+      <c r="F33" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2827767</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2728355</v>
+      </c>
+      <c r="E34" s="1">
+        <v>99412</v>
+      </c>
+      <c r="F34" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1888,10 +2012,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBB5DFE-7841-8E41-B6CB-9B0D5EB9DE1E}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2281,6 +2405,41 @@
         <v>0.96700000000000008</v>
       </c>
     </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1">
+        <v>775867</v>
+      </c>
+      <c r="C12" s="1">
+        <v>517395</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E12" s="1">
+        <v>491320</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="G12" s="1">
+        <v>204526</v>
+      </c>
+      <c r="H12" s="1">
+        <v>137225</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.67099999999999993</v>
+      </c>
+      <c r="J12" s="1">
+        <v>132048</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.96200000000000008</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dati contagi nelle scuole/Monitoraggi Covid-19 in ambito scolastico - MIUR/Quadro Sintesi.xlsx
+++ b/Dati contagi nelle scuole/Monitoraggi Covid-19 in ambito scolastico - MIUR/Quadro Sintesi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Contagi nelle scuole/MIUR/Monitoraggi Covid-19 in ambito scolastico - MIUR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2B8A3C-0E76-F94D-AEA4-604934DFD29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53337D12-44B7-904D-A2E0-DE72A5F73A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4860" yWindow="2060" windowWidth="21360" windowHeight="13620" activeTab="3" xr2:uid="{2ECB7D2D-158E-0A4B-B0FC-6DE660AF08A9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="50">
   <si>
     <t>Data</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>21  - 26 marzo 2022</t>
+  </si>
+  <si>
+    <t>28 marzo - 2 aprile</t>
   </si>
 </sst>
 </file>
@@ -549,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AD602E-4E65-2F40-97E8-B02932F92E6F}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1055,6 +1058,47 @@
         <v>1E-3</v>
       </c>
     </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5393</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8157</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.65099999999999991</v>
+      </c>
+      <c r="E13" s="1">
+        <v>376539</v>
+      </c>
+      <c r="F13" s="1">
+        <v>244617</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="H13" s="1">
+        <v>244530</v>
+      </c>
+      <c r="I13" s="1">
+        <v>18852</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="N13">
+        <v>87</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1062,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E478EE-0C79-3849-89C4-7AD507BD9B67}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1310,6 +1354,26 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7395000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4792852</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4655153</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1317,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53FC0B6-3094-DF41-AEF8-74A0DF3D6831}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2005,6 +2069,66 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1">
+        <v>547613</v>
+      </c>
+      <c r="D35" s="1">
+        <v>536432</v>
+      </c>
+      <c r="E35" s="1">
+        <v>11181</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1513526</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1464519</v>
+      </c>
+      <c r="E36" s="1">
+        <v>49007</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2731713</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2654202</v>
+      </c>
+      <c r="E37" s="1">
+        <v>77511</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2.7999999999999997E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2012,10 +2136,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBB5DFE-7841-8E41-B6CB-9B0D5EB9DE1E}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2440,6 +2564,41 @@
         <v>0.96200000000000008</v>
       </c>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1">
+        <v>775867</v>
+      </c>
+      <c r="C13" s="1">
+        <v>500681</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="E13" s="1">
+        <v>475864</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="G13" s="1">
+        <v>204526</v>
+      </c>
+      <c r="H13" s="1">
+        <v>132766</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="J13" s="1">
+        <v>127749</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.96200000000000008</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dati contagi nelle scuole/Monitoraggi Covid-19 in ambito scolastico - MIUR/Quadro Sintesi.xlsx
+++ b/Dati contagi nelle scuole/Monitoraggi Covid-19 in ambito scolastico - MIUR/Quadro Sintesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Contagi nelle scuole/MIUR/Monitoraggi Covid-19 in ambito scolastico - MIUR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53337D12-44B7-904D-A2E0-DE72A5F73A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14A7EF1-A72E-724E-9D43-2EE5589D0A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4860" yWindow="2060" windowWidth="21360" windowHeight="13620" activeTab="3" xr2:uid="{2ECB7D2D-158E-0A4B-B0FC-6DE660AF08A9}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Alunni" sheetId="4" r:id="rId3"/>
     <sheet name="Personale scolastico" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="52">
   <si>
     <t>Data</t>
   </si>
@@ -187,6 +188,12 @@
   </si>
   <si>
     <t>28 marzo - 2 aprile</t>
+  </si>
+  <si>
+    <t>4-9 aprile</t>
+  </si>
+  <si>
+    <t>11-16 aprile</t>
   </si>
 </sst>
 </file>
@@ -552,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AD602E-4E65-2F40-97E8-B02932F92E6F}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1099,6 +1106,52 @@
         <v>1E-3</v>
       </c>
     </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4918</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8157</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="E14" s="1">
+        <v>376539</v>
+      </c>
+      <c r="F14" s="1">
+        <v>227466</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.60399999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4349</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8157</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.53299999999999992</v>
+      </c>
+      <c r="E15" s="1">
+        <v>376569</v>
+      </c>
+      <c r="F15" s="1">
+        <v>200626</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.53299999999999992</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1106,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E478EE-0C79-3849-89C4-7AD507BD9B67}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1374,6 +1427,46 @@
         <v>0.97099999999999997</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7395201</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4448282</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4374397</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7395729</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3931565</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3881613</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1381,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53FC0B6-3094-DF41-AEF8-74A0DF3D6831}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2129,6 +2222,132 @@
         <v>2.7999999999999997E-2</v>
       </c>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="1">
+        <v>517301</v>
+      </c>
+      <c r="D38" s="1">
+        <v>511411</v>
+      </c>
+      <c r="E38" s="1">
+        <f>C38-D38</f>
+        <v>5890</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1435779</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1408184</v>
+      </c>
+      <c r="E39" s="1">
+        <f>C39-D39</f>
+        <v>27595</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2495202</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2454802</v>
+      </c>
+      <c r="E40" s="1">
+        <f>C40-D40</f>
+        <v>40400</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="1">
+        <v>454672</v>
+      </c>
+      <c r="D41" s="1">
+        <v>450623</v>
+      </c>
+      <c r="E41" s="1">
+        <f>C41-D41</f>
+        <v>4049</v>
+      </c>
+      <c r="F41" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1256185</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1238043</v>
+      </c>
+      <c r="E42" s="1">
+        <f>C42-D42</f>
+        <v>18142</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2220708</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2192947</v>
+      </c>
+      <c r="E43" s="1">
+        <f>C43-D43</f>
+        <v>27761</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2136,10 +2355,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBB5DFE-7841-8E41-B6CB-9B0D5EB9DE1E}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2599,6 +2818,76 @@
         <v>0.96200000000000008</v>
       </c>
     </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1">
+        <v>775867</v>
+      </c>
+      <c r="C14" s="1">
+        <v>464479</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="E14" s="1">
+        <v>448884</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="G14" s="1">
+        <v>204526</v>
+      </c>
+      <c r="H14" s="1">
+        <v>122930</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="J14" s="1">
+        <v>119705</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.97400000000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="1">
+        <v>775867</v>
+      </c>
+      <c r="C15" s="1">
+        <v>409893</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="E15" s="1">
+        <v>398873</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="G15" s="1">
+        <v>204526</v>
+      </c>
+      <c r="H15" s="1">
+        <v>108821</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="J15" s="1">
+        <v>106408</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dati contagi nelle scuole/Monitoraggi Covid-19 in ambito scolastico - MIUR/Quadro Sintesi.xlsx
+++ b/Dati contagi nelle scuole/Monitoraggi Covid-19 in ambito scolastico - MIUR/Quadro Sintesi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/Contagi nelle scuole/MIUR/Monitoraggi Covid-19 in ambito scolastico - MIUR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14A7EF1-A72E-724E-9D43-2EE5589D0A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558F054E-B2F9-184A-93FC-48B110859C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="2060" windowWidth="21360" windowHeight="13620" activeTab="3" xr2:uid="{2ECB7D2D-158E-0A4B-B0FC-6DE660AF08A9}"/>
+    <workbookView xWindow="4680" yWindow="2140" windowWidth="21360" windowHeight="13620" activeTab="3" xr2:uid="{2ECB7D2D-158E-0A4B-B0FC-6DE660AF08A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Classi" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="53">
   <si>
     <t>Data</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>11-16 aprile</t>
+  </si>
+  <si>
+    <t>18-23 aprile</t>
   </si>
 </sst>
 </file>
@@ -559,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AD602E-4E65-2F40-97E8-B02932F92E6F}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1152,6 +1155,29 @@
         <v>0.53299999999999992</v>
       </c>
     </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4625</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8157</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.56700000000000006</v>
+      </c>
+      <c r="E16" s="1">
+        <v>376584</v>
+      </c>
+      <c r="F16" s="1">
+        <v>213765</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.56799999999999995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1159,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E478EE-0C79-3849-89C4-7AD507BD9B67}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1467,6 +1493,26 @@
         <v>0.98699999999999999</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7396217</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4184506</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.56600000000000006</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4132398</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1474,10 +1520,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53FC0B6-3094-DF41-AEF8-74A0DF3D6831}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2236,7 +2282,7 @@
         <v>511411</v>
       </c>
       <c r="E38" s="1">
-        <f>C38-D38</f>
+        <f t="shared" ref="E38:E46" si="0">C38-D38</f>
         <v>5890</v>
       </c>
       <c r="F38" s="2">
@@ -2257,7 +2303,7 @@
         <v>1408184</v>
       </c>
       <c r="E39" s="1">
-        <f>C39-D39</f>
+        <f t="shared" si="0"/>
         <v>27595</v>
       </c>
       <c r="F39" s="2">
@@ -2278,7 +2324,7 @@
         <v>2454802</v>
       </c>
       <c r="E40" s="1">
-        <f>C40-D40</f>
+        <f t="shared" si="0"/>
         <v>40400</v>
       </c>
       <c r="F40" s="2">
@@ -2299,7 +2345,7 @@
         <v>450623</v>
       </c>
       <c r="E41" s="1">
-        <f>C41-D41</f>
+        <f t="shared" si="0"/>
         <v>4049</v>
       </c>
       <c r="F41" s="2">
@@ -2320,7 +2366,7 @@
         <v>1238043</v>
       </c>
       <c r="E42" s="1">
-        <f>C42-D42</f>
+        <f t="shared" si="0"/>
         <v>18142</v>
       </c>
       <c r="F42" s="2">
@@ -2341,11 +2387,74 @@
         <v>2192947</v>
       </c>
       <c r="E43" s="1">
-        <f>C43-D43</f>
+        <f t="shared" si="0"/>
         <v>27761</v>
       </c>
       <c r="F43" s="2">
         <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="1">
+        <v>484017</v>
+      </c>
+      <c r="D44" s="1">
+        <v>480691</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="0"/>
+        <v>3326</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.99299999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1342673</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1325560</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="0"/>
+        <v>17113</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2357816</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2326147</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="0"/>
+        <v>31669</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.98699999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2355,10 +2464,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBB5DFE-7841-8E41-B6CB-9B0D5EB9DE1E}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2888,6 +2997,41 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1">
+        <v>775867</v>
+      </c>
+      <c r="C16" s="1">
+        <v>436867</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="E16" s="1">
+        <v>424494</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G16" s="1">
+        <v>204526</v>
+      </c>
+      <c r="H16" s="1">
+        <v>115592</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="J16" s="1">
+        <v>113013</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
